--- a/小五班能力檢測/output_files/給老師看的.xlsx
+++ b/小五班能力檢測/output_files/給老師看的.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="49">
   <si>
     <t>題號</t>
   </si>
@@ -46,34 +46,34 @@
     <t>100</t>
   </si>
   <si>
+    <t>閱讀單題</t>
+  </si>
+  <si>
+    <t>3.58 題／人</t>
+  </si>
+  <si>
     <t>形音義</t>
   </si>
   <si>
-    <t>3.23 題／人</t>
-  </si>
-  <si>
-    <t>詞語使用</t>
-  </si>
-  <si>
-    <t>3.46 題／人</t>
-  </si>
-  <si>
-    <t>成語運用</t>
-  </si>
-  <si>
-    <t>修辭技巧</t>
-  </si>
-  <si>
-    <t>3.38 題／人</t>
+    <t>5.83 題／人</t>
   </si>
   <si>
     <t>國學常識</t>
   </si>
   <si>
-    <t>閱讀素養</t>
-  </si>
-  <si>
-    <t>11.46 題／人</t>
+    <t>5.75 題／人</t>
+  </si>
+  <si>
+    <t>成語應用</t>
+  </si>
+  <si>
+    <t>5.0 題／人</t>
+  </si>
+  <si>
+    <t>閱讀題組</t>
+  </si>
+  <si>
+    <t>4.33 題／人</t>
   </si>
   <si>
     <t>本梯次成績前２％分數</t>
@@ -91,88 +91,76 @@
     <t>低標（成績後５０％平均分數）</t>
   </si>
   <si>
-    <t>0/13</t>
+    <t>4/12</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>8/12</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>0/12</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2/13</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>10/13</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>11/13</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>6/13</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>7/13</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>8/13</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>1/13</t>
-  </si>
-  <si>
-    <t>7%</t>
-  </si>
-  <si>
-    <t>4/13</t>
-  </si>
-  <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>9/13</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>5/13</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>3/13</t>
-  </si>
-  <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>13/13</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12/13</t>
-  </si>
-  <si>
-    <t>92%</t>
+    <t>1/12</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>7/12</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>6/12</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>10/12</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>9/12</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>11/12</t>
+  </si>
+  <si>
+    <t>91%</t>
   </si>
 </sst>
 </file>
@@ -504,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,16 +533,13 @@
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -574,7 +559,7 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -583,25 +568,22 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N2">
-        <v>7</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -609,10 +591,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -621,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="G3">
-        <v>60.83333333333334</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -630,19 +612,16 @@
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -650,22 +629,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>52.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -673,10 +652,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -685,10 +664,10 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>53.16666666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -696,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -710,13 +689,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -724,13 +703,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -738,41 +717,41 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -780,13 +759,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -800,7 +779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -808,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -822,13 +801,13 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -836,10 +815,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -850,10 +829,10 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -861,13 +840,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -875,13 +854,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -889,13 +868,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -903,13 +882,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -920,10 +899,10 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -934,10 +913,10 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -948,10 +927,10 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -962,10 +941,10 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -973,13 +952,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -987,13 +966,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1001,13 +980,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1015,13 +994,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1029,13 +1008,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1043,13 +1022,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1057,13 +1036,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1071,13 +1050,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1085,13 +1064,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1099,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1113,13 +1092,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1127,13 +1106,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1141,13 +1120,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1155,13 +1134,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1169,13 +1148,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1183,13 +1162,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1197,13 +1176,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1211,13 +1190,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1225,13 +1204,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1239,13 +1218,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1253,13 +1232,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1267,13 +1246,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1281,13 +1260,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1295,13 +1274,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1309,13 +1288,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1323,13 +1302,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1340,10 +1319,10 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1354,10 +1333,10 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1368,10 +1347,10 @@
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1382,10 +1361,10 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1396,10 +1375,10 @@
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1410,10 +1389,10 @@
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1424,10 +1403,10 @@
         <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1438,10 +1417,10 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1452,10 +1431,10 @@
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1466,10 +1445,10 @@
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
